--- a/data/trans_orig/P64S_2023_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P64S_2023_R-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7201</v>
+        <v>7102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003858991434029786</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01933106257926095</v>
+        <v>0.0190641705053775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7247</v>
+        <v>8289</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002051430718413903</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01034150477437744</v>
+        <v>0.01182843634991054</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4006</v>
+        <v>4769</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002480810370931439</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01075450968490421</v>
+        <v>0.01280293246893693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5449</v>
+        <v>5310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001318792925169592</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007775529192005853</v>
+        <v>0.007577290175918291</v>
       </c>
     </row>
     <row r="6">
@@ -867,19 +867,19 @@
         <v>21682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14085</v>
+        <v>14399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30746</v>
+        <v>32022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05820322817773368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03780941611291343</v>
+        <v>0.03865288676057708</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08253693708316184</v>
+        <v>0.08596248710362588</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -888,19 +888,19 @@
         <v>26003</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19077</v>
+        <v>18636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33960</v>
+        <v>34395</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.07922144589222452</v>
+        <v>0.07922144589222453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05812199265535455</v>
+        <v>0.05677573931246943</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1034625278558724</v>
+        <v>0.1047872603619891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>66</v>
@@ -909,19 +909,19 @@
         <v>47685</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37353</v>
+        <v>36447</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59680</v>
+        <v>60956</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06804821107091992</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05330446521007487</v>
+        <v>0.05201188634667293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08516594899792525</v>
+        <v>0.08698718859937435</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>8662</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3715</v>
+        <v>3771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17882</v>
+        <v>16486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02325176923335003</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009972667064335097</v>
+        <v>0.01012326841765396</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04800228291092746</v>
+        <v>0.04425676777587605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -959,19 +959,19 @@
         <v>8418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4661</v>
+        <v>4411</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14690</v>
+        <v>14482</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02564717001455335</v>
+        <v>0.02564717001455336</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01419971598549341</v>
+        <v>0.01343858282966972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04475384828083397</v>
+        <v>0.04412029186934216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -980,19 +980,19 @@
         <v>17080</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9865</v>
+        <v>10444</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26970</v>
+        <v>28044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02437378062525852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01407811534016948</v>
+        <v>0.01490467010313424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03848726199373276</v>
+        <v>0.04001990657735739</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9413</v>
+        <v>10865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00506937851127824</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02526845434820511</v>
+        <v>0.02916683445913185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10725</v>
+        <v>9392</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002694869625674128</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01530508619054439</v>
+        <v>0.01340212079835794</v>
       </c>
     </row>
     <row r="9">
@@ -1088,16 +1088,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4793</v>
+        <v>4731</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.00415514380051299</v>
+        <v>0.004155143800512991</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01460165746183255</v>
+        <v>0.01441466460326972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4714</v>
+        <v>4872</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001946279184584526</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006726794341324611</v>
+        <v>0.006952311245220937</v>
       </c>
     </row>
     <row r="10">
@@ -1135,19 +1135,19 @@
         <v>2865</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8320</v>
+        <v>8110</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007691995511255309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002262050369866838</v>
+        <v>0.00224390433020702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02233581513841011</v>
+        <v>0.02177058127280648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1169,19 +1169,19 @@
         <v>2865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7948</v>
+        <v>8188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004089046619420196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001203258863780559</v>
+        <v>0.001210021727305836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01134198388801525</v>
+        <v>0.01168499044924334</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>9019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3590</v>
+        <v>3320</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17879</v>
+        <v>18659</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02421092767797145</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009636842092565006</v>
+        <v>0.00891267093399789</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.047996457305181</v>
+        <v>0.05008806588703962</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1266,19 +1266,19 @@
         <v>14679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9380</v>
+        <v>9436</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22901</v>
+        <v>22874</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04472140771147751</v>
+        <v>0.04472140771147753</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02857720152883995</v>
+        <v>0.02874828281859662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0697693386234655</v>
+        <v>0.06968811949853795</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1287,19 +1287,19 @@
         <v>23698</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15858</v>
+        <v>15892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35088</v>
+        <v>34914</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0338180850404004</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02262940652912377</v>
+        <v>0.02267807139685148</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05007253567608701</v>
+        <v>0.04982376515502002</v>
       </c>
     </row>
     <row r="13">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7689</v>
+        <v>5936</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003370339605989317</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0206405316405591</v>
+        <v>0.01593402138773596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7456</v>
+        <v>7423</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.004517249879668528</v>
+        <v>0.004517249879668529</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0227142711226751</v>
+        <v>0.02261526051592856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8438</v>
+        <v>9931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003907555091040017</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01204170176924108</v>
+        <v>0.01417169968052578</v>
       </c>
     </row>
     <row r="14">
@@ -1387,19 +1387,19 @@
         <v>32529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21359</v>
+        <v>21190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48327</v>
+        <v>47178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08732334143892077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0573383975455496</v>
+        <v>0.05688383950018387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1297313063526926</v>
+        <v>0.1266465326018985</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1408,19 +1408,19 @@
         <v>16663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10560</v>
+        <v>10163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25837</v>
+        <v>25690</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05076509300411828</v>
+        <v>0.05076509300411829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03217378367364525</v>
+        <v>0.03096143909933266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07871522176340362</v>
+        <v>0.07826718439909806</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -1429,19 +1429,19 @@
         <v>49192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35951</v>
+        <v>34992</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65680</v>
+        <v>65533</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07019937139852374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05130388044097896</v>
+        <v>0.04993513395171354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09372894252232597</v>
+        <v>0.09351927958487107</v>
       </c>
     </row>
     <row r="15">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8337</v>
+        <v>8955</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.007325621842559814</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02238102967232174</v>
+        <v>0.02403912392423445</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9794</v>
+        <v>9839</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003894283243748464</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.013975806721716</v>
+        <v>0.01404015325389535</v>
       </c>
     </row>
     <row r="16">
@@ -1521,19 +1521,19 @@
         <v>9034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4032</v>
+        <v>4103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17554</v>
+        <v>17961</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0242523789966591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01082247384775479</v>
+        <v>0.01101444284252947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04712350051121987</v>
+        <v>0.04821663863921213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1542,19 +1542,19 @@
         <v>10150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5667</v>
+        <v>5410</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17838</v>
+        <v>17636</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03092385124894163</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01726441678428764</v>
+        <v>0.01648334696104884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05434658550711287</v>
+        <v>0.05373025776374927</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1563,19 +1563,19 @@
         <v>19185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11847</v>
+        <v>11739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28859</v>
+        <v>29500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0273773123800832</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01690623356186901</v>
+        <v>0.01675187461503276</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04118269805710015</v>
+        <v>0.04209854267384282</v>
       </c>
     </row>
     <row r="17">
@@ -1592,19 +1592,19 @@
         <v>209116</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187779</v>
+        <v>185696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>228790</v>
+        <v>230589</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5613603071440313</v>
+        <v>0.5613603071440314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5040817505941008</v>
+        <v>0.4984925917497201</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.614174537282569</v>
+        <v>0.6190030112189787</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>231</v>
@@ -1613,19 +1613,19 @@
         <v>178417</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160530</v>
+        <v>161957</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>193020</v>
+        <v>193292</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5435707966695197</v>
+        <v>0.5435707966695198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4890749072091281</v>
+        <v>0.4934231835137593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5880594183276353</v>
+        <v>0.5888879164310213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -1634,19 +1634,19 @@
         <v>387533</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361148</v>
+        <v>362628</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>413648</v>
+        <v>413162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5530276583591167</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5153752270980662</v>
+        <v>0.5174869732570967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5902954232854964</v>
+        <v>0.5896016252880796</v>
       </c>
     </row>
     <row r="18">
@@ -1663,19 +1663,19 @@
         <v>6102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2363</v>
+        <v>2310</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13192</v>
+        <v>13201</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01638006250030194</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0063424109689903</v>
+        <v>0.0062020463216363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03541210896540462</v>
+        <v>0.03543820282047515</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1687,16 +1687,16 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4734</v>
+        <v>5590</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.004445791925742968</v>
+        <v>0.004445791925742969</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01442258501793238</v>
+        <v>0.01703125320939488</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1705,19 +1705,19 @@
         <v>7561</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3396</v>
+        <v>3420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14737</v>
+        <v>14580</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01079002193429407</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004845797961943303</v>
+        <v>0.004880869927917517</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02102997474461708</v>
+        <v>0.02080570074174375</v>
       </c>
     </row>
     <row r="19">
@@ -1734,19 +1734,19 @@
         <v>65273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51052</v>
+        <v>49233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81890</v>
+        <v>82210</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1752208475549878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1370456244233071</v>
+        <v>0.1321638563435316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2198285001788538</v>
+        <v>0.2206887024086215</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -1755,19 +1755,19 @@
         <v>69596</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57680</v>
+        <v>57268</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82642</v>
+        <v>84049</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2120320498532403</v>
+        <v>0.2120320498532404</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1757295667622461</v>
+        <v>0.174473023678347</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2517798444510181</v>
+        <v>0.2560671863316823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -1776,19 +1776,19 @@
         <v>134868</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>115010</v>
+        <v>116269</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156326</v>
+        <v>157559</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1924633017833526</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.164125250015846</v>
+        <v>0.1659211833429865</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2230838446406557</v>
+        <v>0.2248439540985107</v>
       </c>
     </row>
     <row r="20">
@@ -1974,19 +1974,19 @@
         <v>12552</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6670</v>
+        <v>6773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20227</v>
+        <v>20402</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0395211409462857</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02100111227396549</v>
+        <v>0.02132664487974139</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06368621531206076</v>
+        <v>0.0642395574093379</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -1995,19 +1995,19 @@
         <v>21500</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14339</v>
+        <v>14645</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30261</v>
+        <v>31098</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.07930666751673382</v>
+        <v>0.07930666751673381</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05288950214205165</v>
+        <v>0.05401929016169651</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1116204394221897</v>
+        <v>0.114709135080383</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>43</v>
@@ -2016,19 +2016,19 @@
         <v>34052</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>25200</v>
+        <v>23998</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45646</v>
+        <v>45276</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05784284033056766</v>
+        <v>0.05784284033056765</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04280554698498355</v>
+        <v>0.04076377980481857</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07753725139797064</v>
+        <v>0.07690757085560793</v>
       </c>
     </row>
     <row r="24">
@@ -2045,19 +2045,19 @@
         <v>12223</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6373</v>
+        <v>6338</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21139</v>
+        <v>20356</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03848463234074945</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02006600263753436</v>
+        <v>0.01995453279497728</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0665577717030932</v>
+        <v>0.06409213129874476</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -2066,19 +2066,19 @@
         <v>11882</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6557</v>
+        <v>6959</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20714</v>
+        <v>20713</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04382760398002264</v>
+        <v>0.04382760398002263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02418462148231002</v>
+        <v>0.02566973526902257</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07640507574776273</v>
+        <v>0.07640276110725613</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2087,19 +2087,19 @@
         <v>24105</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16143</v>
+        <v>15766</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35191</v>
+        <v>34469</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04094513314674406</v>
+        <v>0.04094513314674405</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02742068772808656</v>
+        <v>0.02678018634772112</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05977668809809365</v>
+        <v>0.05855099608996749</v>
       </c>
     </row>
     <row r="25">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4092</v>
+        <v>4104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00296717684040383</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01509284352555135</v>
+        <v>0.01513765450991772</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2153,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4947</v>
+        <v>4086</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.001366419569529156</v>
+        <v>0.001366419569529155</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008402404959605227</v>
+        <v>0.006940588724603047</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>8666</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4016</v>
+        <v>4133</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>15994</v>
+        <v>15665</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02728554765037961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01264426082715909</v>
+        <v>0.01301258182186313</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05035761283834572</v>
+        <v>0.04932251794636584</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2341,19 +2341,19 @@
         <v>5760</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2662</v>
+        <v>2630</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10549</v>
+        <v>11115</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02124762480998058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00981953464013114</v>
+        <v>0.009702398874302293</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03891078809489217</v>
+        <v>0.0409984291456572</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2362,19 +2362,19 @@
         <v>14426</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8149</v>
+        <v>7979</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>23208</v>
+        <v>22863</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02450501370441317</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01384278470068107</v>
+        <v>0.01355325859047378</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03942177148646713</v>
+        <v>0.03883624903964358</v>
       </c>
     </row>
     <row r="30">
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3484</v>
+        <v>3542</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002576362954880643</v>
@@ -2416,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01285180551879432</v>
+        <v>0.01306532053025666</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3561</v>
+        <v>3251</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001186445213450692</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.00604944599664387</v>
+        <v>0.005522488444041393</v>
       </c>
     </row>
     <row r="31">
@@ -2454,19 +2454,19 @@
         <v>23577</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13992</v>
+        <v>14389</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>37643</v>
+        <v>37479</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07423363577045494</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04405693655073017</v>
+        <v>0.04530434989034726</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1185252420428515</v>
+        <v>0.118008655207887</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -2475,19 +2475,19 @@
         <v>19728</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12870</v>
+        <v>13488</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29369</v>
+        <v>28898</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07276769538383648</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04747417327696395</v>
+        <v>0.04975306104355433</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1083291245132228</v>
+        <v>0.1065947778903052</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -2496,19 +2496,19 @@
         <v>43304</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>30933</v>
+        <v>31182</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58696</v>
+        <v>61132</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.07355855311115313</v>
+        <v>0.07355855311115311</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05254408810173519</v>
+        <v>0.05296731025830664</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09970317982711703</v>
+        <v>0.1038421617766996</v>
       </c>
     </row>
     <row r="32">
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4726</v>
+        <v>4241</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.002727608440265096</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01488053614145187</v>
+        <v>0.01335237065400746</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9064</v>
+        <v>7319</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005355346921381014</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03343246591244455</v>
+        <v>0.02699744511822647</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8329</v>
+        <v>9218</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.003937712683230586</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01414845311999135</v>
+        <v>0.01565893575628507</v>
       </c>
     </row>
     <row r="33">
@@ -2596,19 +2596,19 @@
         <v>5749</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2543</v>
+        <v>1975</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>12640</v>
+        <v>12196</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01810079370004447</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008006070513183335</v>
+        <v>0.006216974719308392</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03979956419314999</v>
+        <v>0.03840093459456293</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -2617,19 +2617,19 @@
         <v>10375</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>5603</v>
+        <v>5774</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>18743</v>
+        <v>17195</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.03826801649682157</v>
+        <v>0.03826801649682158</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02066544505772713</v>
+        <v>0.02129913470273759</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.06913381846236047</v>
+        <v>0.06342527232888488</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>18</v>
@@ -2638,19 +2638,19 @@
         <v>16123</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>9368</v>
+        <v>9377</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>25492</v>
+        <v>25762</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.02738803520089829</v>
+        <v>0.02738803520089828</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01591287448347278</v>
+        <v>0.01592863547764294</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04330185063555639</v>
+        <v>0.04376130718682095</v>
       </c>
     </row>
     <row r="34">
@@ -2667,19 +2667,19 @@
         <v>208678</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>188977</v>
+        <v>188339</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>225439</v>
+        <v>224593</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6570472782866655</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5950168442718878</v>
+        <v>0.5930095759845975</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7098219460164151</v>
+        <v>0.707157838995064</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>191</v>
@@ -2688,19 +2688,19 @@
         <v>143081</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>128312</v>
+        <v>126866</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>157743</v>
+        <v>157337</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5277694292969917</v>
+        <v>0.5277694292969916</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4732929723357033</v>
+        <v>0.4679575569012568</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5818502255514744</v>
+        <v>0.5803537630215027</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>366</v>
@@ -2709,19 +2709,19 @@
         <v>351758</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>325545</v>
+        <v>327433</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>374945</v>
+        <v>374786</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5975133198246267</v>
+        <v>0.5975133198246265</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.552985280415888</v>
+        <v>0.5561931453935877</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6368990851587379</v>
+        <v>0.6366287014622625</v>
       </c>
     </row>
     <row r="35">
@@ -2738,19 +2738,19 @@
         <v>5408</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1802</v>
+        <v>1826</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>14923</v>
+        <v>14783</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01702869150877196</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00567429810679755</v>
+        <v>0.005749792895032212</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04698633687643172</v>
+        <v>0.04654639164780416</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2759,19 +2759,19 @@
         <v>4778</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1649</v>
+        <v>1869</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10069</v>
+        <v>10082</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01762464738685782</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.006082817541939053</v>
+        <v>0.006893116139081187</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03713969840609155</v>
+        <v>0.03718940917246835</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2780,19 +2780,19 @@
         <v>10186</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5306</v>
+        <v>4726</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>20208</v>
+        <v>20457</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.01730313614695592</v>
+        <v>0.01730313614695591</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.009012583411788363</v>
+        <v>0.008027223539302682</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0343257010163311</v>
+        <v>0.03474861917134173</v>
       </c>
     </row>
     <row r="36">
@@ -2809,19 +2809,19 @@
         <v>39881</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>28443</v>
+        <v>28529</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>53294</v>
+        <v>53132</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1255706713563832</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08955769719969665</v>
+        <v>0.08982720310726937</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1678043505954609</v>
+        <v>0.1672931873130198</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>69</v>
@@ -2830,19 +2830,19 @@
         <v>51046</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>40809</v>
+        <v>40019</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>63712</v>
+        <v>64037</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1882894284120899</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1505292094206586</v>
+        <v>0.1476162008245396</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2350087950386477</v>
+        <v>0.2362088514143187</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>107</v>
@@ -2851,19 +2851,19 @@
         <v>90927</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>75119</v>
+        <v>75482</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>109701</v>
+        <v>109130</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1544533910684307</v>
+        <v>0.1544533910684306</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1276008302865632</v>
+        <v>0.1282174772321612</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1863432837342476</v>
+        <v>0.1853735491093927</v>
       </c>
     </row>
     <row r="37">
@@ -3049,19 +3049,19 @@
         <v>21860</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>14641</v>
+        <v>14015</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>32329</v>
+        <v>30953</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.08138713744763876</v>
+        <v>0.08138713744763877</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05451007315032732</v>
+        <v>0.05218062626485362</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1203648262562156</v>
+        <v>0.115239025716335</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3070,19 +3070,19 @@
         <v>6743</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3542</v>
+        <v>3548</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11780</v>
+        <v>12784</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.08254723145006539</v>
+        <v>0.08254723145006537</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04335672024659749</v>
+        <v>0.04343364094329271</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1442012292458754</v>
+        <v>0.1564911744153381</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>37</v>
@@ -3091,19 +3091,19 @@
         <v>28604</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>20156</v>
+        <v>20041</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>38495</v>
+        <v>38877</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08165768563793785</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05754181102315422</v>
+        <v>0.05721290489164638</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1098962298341734</v>
+        <v>0.1109870310549118</v>
       </c>
     </row>
     <row r="41">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6920</v>
+        <v>7624</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.008244177848591572</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02576352297041463</v>
+        <v>0.02838406120966204</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3157,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>7857</v>
+        <v>7837</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.006321534172497464</v>
+        <v>0.006321534172497463</v>
       </c>
       <c r="V41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02243017353789456</v>
+        <v>0.02237303604749481</v>
       </c>
     </row>
     <row r="42">
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>4690</v>
+        <v>4812</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.003386166557351203</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01746116591500304</v>
+        <v>0.01791704657121515</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4511</v>
+        <v>4539</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.002596470866979254</v>
+        <v>0.002596470866979253</v>
       </c>
       <c r="V44" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01287782191517298</v>
+        <v>0.01295687623815657</v>
       </c>
     </row>
     <row r="45">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13204</v>
+        <v>12866</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.009817640403540965</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.04915920411060554</v>
+        <v>0.04790245677160766</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>0</v>
@@ -3377,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>12941</v>
+        <v>13021</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.007528045906345738</v>
+        <v>0.007528045906345737</v>
       </c>
       <c r="V45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03694498137639755</v>
+        <v>0.03717321155788866</v>
       </c>
     </row>
     <row r="46">
@@ -3403,19 +3403,19 @@
         <v>5121</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>1293</v>
+        <v>1545</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>13294</v>
+        <v>13239</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0190665200936828</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004813070151533902</v>
+        <v>0.005750909435267213</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0494933445640448</v>
+        <v>0.04929117140414448</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>3</v>
@@ -3424,19 +3424,19 @@
         <v>2083</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>5380</v>
+        <v>5765</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02549925757823225</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.008049434551394863</v>
+        <v>0.008181978100911001</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06586083513670234</v>
+        <v>0.07057538801648257</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>7</v>
@@ -3445,19 +3445,19 @@
         <v>7204</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>3145</v>
+        <v>3260</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>14416</v>
+        <v>15628</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02056671359651407</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.008977398723746907</v>
+        <v>0.009307289371930547</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04115428469725468</v>
+        <v>0.04461473432575746</v>
       </c>
     </row>
     <row r="47">
@@ -3521,19 +3521,19 @@
         <v>7900</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3278</v>
+        <v>3125</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>15274</v>
+        <v>15734</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02941361972826314</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01220290038159651</v>
+        <v>0.01163362294094056</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05686747157753735</v>
+        <v>0.0585793131359874</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>12</v>
@@ -3542,19 +3542,19 @@
         <v>8256</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>4619</v>
+        <v>4559</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>14405</v>
+        <v>13986</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1010587757361504</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.05654288441895308</v>
+        <v>0.05580195973657125</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1763334529975126</v>
+        <v>0.1712108230147312</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>19</v>
@@ -3563,19 +3563,19 @@
         <v>16156</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>9792</v>
+        <v>9859</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>24877</v>
+        <v>25686</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.04612215133094721</v>
+        <v>0.0461221513309472</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02795315639015853</v>
+        <v>0.02814465721533169</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07102027536435242</v>
+        <v>0.07332733644465646</v>
       </c>
     </row>
     <row r="49">
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>9125</v>
+        <v>6946</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.004732012979691422</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.03397201959272936</v>
+        <v>0.02586046268110434</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>7587</v>
+        <v>7013</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.003628449349977484</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02166012542696829</v>
+        <v>0.02002021664047061</v>
       </c>
     </row>
     <row r="50">
@@ -3655,19 +3655,19 @@
         <v>7808</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2864</v>
+        <v>2792</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>17697</v>
+        <v>15753</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.029071176895565</v>
+        <v>0.02907117689556501</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01066183117140166</v>
+        <v>0.01039310841342395</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06588762598491187</v>
+        <v>0.05864949648562504</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>0</v>
@@ -3689,19 +3689,19 @@
         <v>7808</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2851</v>
+        <v>2717</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>15403</v>
+        <v>18678</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.02229142087363251</v>
+        <v>0.0222914208736325</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.008138022445720988</v>
+        <v>0.007757680530180085</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04397139861411388</v>
+        <v>0.05332114847112732</v>
       </c>
     </row>
     <row r="51">
@@ -3718,19 +3718,19 @@
         <v>174015</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>155705</v>
+        <v>155866</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>190736</v>
+        <v>189394</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6478728405264275</v>
+        <v>0.6478728405264276</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5797010361372454</v>
+        <v>0.5803019823687988</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7101242447400721</v>
+        <v>0.7051277136987824</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>40</v>
@@ -3739,19 +3739,19 @@
         <v>32083</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>24785</v>
+        <v>25194</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>41039</v>
+        <v>40396</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.3927408800803652</v>
+        <v>0.3927408800803651</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.3033999484003448</v>
+        <v>0.30840801887481</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.5023725487144293</v>
+        <v>0.4944974274419941</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>189</v>
@@ -3760,19 +3760,19 @@
         <v>206099</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>185560</v>
+        <v>186753</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>223841</v>
+        <v>225749</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.5883729292763428</v>
+        <v>0.5883729292763427</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5297377974008991</v>
+        <v>0.5331441003215502</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6390241694830041</v>
+        <v>0.6444719379835643</v>
       </c>
     </row>
     <row r="52">
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>7594</v>
+        <v>7093</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.007990070541209772</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02827373851989257</v>
+        <v>0.02640619593021102</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4329</v>
+        <v>4778</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.01713882017281481</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0529896780172673</v>
+        <v>0.05849237416371585</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>4</v>
@@ -3831,19 +3831,19 @@
         <v>3546</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>949</v>
+        <v>1023</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>8992</v>
+        <v>9214</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01012367148316164</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.002708875374987268</v>
+        <v>0.00291928653263929</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02567173207475741</v>
+        <v>0.02630463654027533</v>
       </c>
     </row>
     <row r="53">
@@ -3860,19 +3860,19 @@
         <v>42712</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>31419</v>
+        <v>31007</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>57040</v>
+        <v>56908</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1590186369780379</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1169770010038315</v>
+        <v>0.1154405836417303</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2123661225747434</v>
+        <v>0.2118716510143889</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>46</v>
@@ -3881,19 +3881,19 @@
         <v>31125</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>23952</v>
+        <v>23770</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>38789</v>
+        <v>39074</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.3810150349823719</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.2932077096228102</v>
+        <v>0.2909726738038236</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.474826808143995</v>
+        <v>0.4783086327361077</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>84</v>
@@ -3902,19 +3902,19 @@
         <v>73837</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>60191</v>
+        <v>60433</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>89744</v>
+        <v>90622</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.2107909275056642</v>
+        <v>0.2107909275056641</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1718326815066266</v>
+        <v>0.1725235241104023</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.2562033319869267</v>
+        <v>0.2587087591821585</v>
       </c>
     </row>
     <row r="54">
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>5216</v>
+        <v>5219</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.001962391536618409</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01100207427287524</v>
+        <v>0.01100787074489979</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1</v>
@@ -4090,16 +4090,16 @@
         <v>0</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>4636</v>
+        <v>4706</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.0008536822184430575</v>
+        <v>0.0008536822184430577</v>
       </c>
       <c r="V56" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.004253844828763843</v>
+        <v>0.00431815972272889</v>
       </c>
     </row>
     <row r="57">
@@ -4116,19 +4116,19 @@
         <v>36632</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>26810</v>
+        <v>26554</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>50393</v>
+        <v>50217</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.05949743790285698</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04354465153702877</v>
+        <v>0.04312808252279026</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.08184788503552956</v>
+        <v>0.08156075170950745</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>62</v>
@@ -4137,19 +4137,19 @@
         <v>37153</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>27663</v>
+        <v>28399</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>46865</v>
+        <v>47887</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.07836881183263904</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.0583519133563114</v>
+        <v>0.05990335035983382</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.09885588696206783</v>
+        <v>0.1010123666927873</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>101</v>
@@ -4158,19 +4158,19 @@
         <v>73785</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>59819</v>
+        <v>59122</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>93532</v>
+        <v>89403</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.06770688849455991</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.05489132750702737</v>
+        <v>0.05425211739444574</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.0858277773268894</v>
+        <v>0.08203889822573185</v>
       </c>
     </row>
     <row r="58">
@@ -4187,19 +4187,19 @@
         <v>22348</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>14148</v>
+        <v>14132</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>35429</v>
+        <v>34855</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.03629766082774158</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.02297896958162017</v>
+        <v>0.02295243253022786</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.05754355257655157</v>
+        <v>0.05661076050349223</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>20</v>
@@ -4208,19 +4208,19 @@
         <v>17677</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>11279</v>
+        <v>11210</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>26801</v>
+        <v>26924</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.03728826651913373</v>
+        <v>0.03728826651913374</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.02379235248421023</v>
+        <v>0.02364542741832277</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.05653418752857509</v>
+        <v>0.05679286348345574</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>39</v>
@@ -4229,19 +4229,19 @@
         <v>40026</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>27855</v>
+        <v>28522</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>53040</v>
+        <v>54809</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.03672859545442022</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.02556003858186957</v>
+        <v>0.02617233190792176</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.04867099771934968</v>
+        <v>0.05029422875167679</v>
       </c>
     </row>
     <row r="59">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>5401</v>
+        <v>5392</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.001481336356516589</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.008772266783879667</v>
+        <v>0.008757098964413165</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>5199</v>
+        <v>4649</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.0008369234126702354</v>
+        <v>0.0008369234126702356</v>
       </c>
       <c r="V61" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.004770394842023629</v>
+        <v>0.004266350402884664</v>
       </c>
     </row>
     <row r="62">
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>4141</v>
+        <v>3690</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.001525562853539223</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.008734895375057209</v>
+        <v>0.007783708824438765</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>1</v>
@@ -4452,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>4408</v>
+        <v>2946</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.0006636524143535016</v>
+        <v>0.0006636524143535017</v>
       </c>
       <c r="V62" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.004044649752176202</v>
+        <v>0.00270292195326224</v>
       </c>
     </row>
     <row r="63">
@@ -4478,19 +4478,19 @@
         <v>12002</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>5672</v>
+        <v>5802</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>26883</v>
+        <v>24335</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01949263951966261</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.009212320186426374</v>
+        <v>0.009423252575981228</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.04366327493150089</v>
+        <v>0.03952427107507402</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>12</v>
@@ -4499,19 +4499,19 @@
         <v>9721</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>5477</v>
+        <v>5038</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>16436</v>
+        <v>17072</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.02050505856989181</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.01155225238075633</v>
+        <v>0.01062727714015334</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.03466900624420862</v>
+        <v>0.03601099269812229</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>20</v>
@@ -4520,19 +4520,19 @@
         <v>21722</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>12791</v>
+        <v>13041</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>36287</v>
+        <v>35607</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.01993306342318342</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.01173753033452641</v>
+        <v>0.01196651663177052</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.03329775491428481</v>
+        <v>0.03267399768653374</v>
       </c>
     </row>
     <row r="64">
@@ -4549,19 +4549,19 @@
         <v>3481</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>9344</v>
+        <v>9967</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.005654009470087826</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.001519479056771397</v>
+        <v>0.001478299840286911</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.01517551723697941</v>
+        <v>0.0161878958828538</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>5742</v>
+        <v>5584</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.002319212985426135</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.01211160668070705</v>
+        <v>0.01177900746200371</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>4</v>
@@ -4591,19 +4591,19 @@
         <v>4581</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>12164</v>
+        <v>11037</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.004203301796333891</v>
+        <v>0.004203301796333892</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.001030908893185447</v>
+        <v>0.0010271477153131</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.01116162882879009</v>
+        <v>0.01012793342960236</v>
       </c>
     </row>
     <row r="65">
@@ -4620,19 +4620,19 @@
         <v>12664</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>6442</v>
+        <v>6555</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>21919</v>
+        <v>22101</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.02056914684286897</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.01046371076480677</v>
+        <v>0.01064722241300887</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.03560054541325201</v>
+        <v>0.03589557296686609</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>15</v>
@@ -4641,19 +4641,19 @@
         <v>9909</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>5888</v>
+        <v>5419</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>16283</v>
+        <v>16265</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.02090213815009798</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.0124203705600873</v>
+        <v>0.01143064450702938</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.03434729767030373</v>
+        <v>0.03430880068307768</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>26</v>
@@ -4662,19 +4662,19 @@
         <v>22573</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>15090</v>
+        <v>14429</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>33292</v>
+        <v>33706</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.02071400517137938</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.01384715681361104</v>
+        <v>0.01324073107443885</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.03054962613016092</v>
+        <v>0.03092981614111029</v>
       </c>
     </row>
     <row r="66">
@@ -4691,19 +4691,19 @@
         <v>4050</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1011</v>
+        <v>892</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>10214</v>
+        <v>10699</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.006577784475858577</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.001642812152360026</v>
+        <v>0.001448719426774771</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.01658868884229085</v>
+        <v>0.01737715564527595</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>5</v>
@@ -4712,19 +4712,19 @@
         <v>6176</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>14803</v>
+        <v>15033</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.01302766135984332</v>
+        <v>0.01302766135984333</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.004745672824346899</v>
+        <v>0.004735694469659641</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.03122414538784254</v>
+        <v>0.03171025507084047</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>9</v>
@@ -4733,19 +4733,19 @@
         <v>10226</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>4865</v>
+        <v>5085</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>19190</v>
+        <v>19402</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.009383618634974897</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.004464170281400533</v>
+        <v>0.004666397767277467</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.01760883600058152</v>
+        <v>0.01780394713232433</v>
       </c>
     </row>
     <row r="67">
@@ -4762,19 +4762,19 @@
         <v>19024</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>10791</v>
+        <v>11083</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>31438</v>
+        <v>32251</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.03089906035553422</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.01752683088439618</v>
+        <v>0.01800118460116844</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.05106091997080039</v>
+        <v>0.05238076161749537</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>26</v>
@@ -4783,19 +4783,19 @@
         <v>26819</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>17534</v>
+        <v>17479</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>38924</v>
+        <v>39367</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>0.0565704625157903</v>
+        <v>0.05657046251579031</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.03698487145787176</v>
+        <v>0.03686952938572392</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.08210571216571157</v>
+        <v>0.08304051209223655</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>41</v>
@@ -4804,19 +4804,19 @@
         <v>45843</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>31655</v>
+        <v>31970</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>61868</v>
+        <v>62394</v>
       </c>
       <c r="U67" s="6" t="n">
-        <v>0.04206666841833476</v>
+        <v>0.04206666841833477</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.0290470302282193</v>
+        <v>0.02933615163439705</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.05677186354289158</v>
+        <v>0.05725437579146538</v>
       </c>
     </row>
     <row r="68">
@@ -4833,19 +4833,19 @@
         <v>408421</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>380949</v>
+        <v>378624</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>433699</v>
+        <v>432698</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.6633477755907542</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.6187292732706813</v>
+        <v>0.6149533259364763</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.7044045142681924</v>
+        <v>0.7027789246274012</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>303</v>
@@ -4854,19 +4854,19 @@
         <v>227814</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>209998</v>
+        <v>207835</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>247987</v>
+        <v>247280</v>
       </c>
       <c r="N68" s="6" t="n">
-        <v>0.4805456694767063</v>
+        <v>0.4805456694767064</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.4429663535180519</v>
+        <v>0.4384020326083694</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.5230991693853856</v>
+        <v>0.5216081296143386</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>659</v>
@@ -4875,19 +4875,19 @@
         <v>636234</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>600402</v>
+        <v>601323</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>670559</v>
+        <v>670807</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.5838249563309355</v>
+        <v>0.5838249563309356</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.5509446354262812</v>
+        <v>0.5517889672846341</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.6153221521962882</v>
+        <v>0.615549517649676</v>
       </c>
     </row>
     <row r="69">
@@ -4904,19 +4904,19 @@
         <v>4921</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>13098</v>
+        <v>11009</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.00799197901805699</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.002532639480169137</v>
+        <v>0.002514411334391527</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.02127284490202988</v>
+        <v>0.01788083030287117</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>6380</v>
+        <v>5178</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.003348385348816853</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.01345843001985077</v>
+        <v>0.01092320650081604</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>6</v>
@@ -4946,19 +4946,19 @@
         <v>6508</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>2670</v>
+        <v>2270</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>14137</v>
+        <v>13168</v>
       </c>
       <c r="U69" s="6" t="n">
-        <v>0.005971916624220905</v>
+        <v>0.005971916624220907</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.002449694044744965</v>
+        <v>0.002082961210917823</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.01297270281504702</v>
+        <v>0.01208314966762944</v>
       </c>
     </row>
     <row r="70">
@@ -4975,19 +4975,19 @@
         <v>91241</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>72311</v>
+        <v>72691</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>116743</v>
+        <v>117182</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.1481911696400614</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.1174455878686941</v>
+        <v>0.1180638384187338</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.1896108215296652</v>
+        <v>0.1903239259984061</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>177</v>
@@ -4996,19 +4996,19 @@
         <v>134464</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>115872</v>
+        <v>116953</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>153699</v>
+        <v>151334</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.2836363788514968</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.2444187009171102</v>
+        <v>0.2466987677384342</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.324209742916294</v>
+        <v>0.3192200268914622</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>245</v>
@@ -5017,19 +5017,19 @@
         <v>225705</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>200790</v>
+        <v>198717</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>254335</v>
+        <v>257488</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.2071127276061902</v>
+        <v>0.2071127276061903</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.1842502789114526</v>
+        <v>0.1823477226951244</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.2333844072991802</v>
+        <v>0.2362771603873084</v>
       </c>
     </row>
     <row r="71">
@@ -5215,19 +5215,19 @@
         <v>9298</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>3570</v>
+        <v>3661</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>23993</v>
+        <v>22280</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.03037027412917214</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.01165989549645751</v>
+        <v>0.01195646585708164</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.0783651202154438</v>
+        <v>0.07277132512344545</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>41</v>
@@ -5236,19 +5236,19 @@
         <v>25224</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>17917</v>
+        <v>18085</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>33993</v>
+        <v>34764</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.08217238994875414</v>
+        <v>0.08217238994875416</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.05836844801547531</v>
+        <v>0.05891656781131713</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.110741459706104</v>
+        <v>0.113253547530311</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>48</v>
@@ -5257,19 +5257,19 @@
         <v>34522</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>25037</v>
+        <v>25326</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>47600</v>
+        <v>48899</v>
       </c>
       <c r="U74" s="6" t="n">
-        <v>0.05630486505214919</v>
+        <v>0.05630486505214918</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.04083513859590114</v>
+        <v>0.04130635927556728</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.07763439806577459</v>
+        <v>0.07975281268805716</v>
       </c>
     </row>
     <row r="75">
@@ -5286,19 +5286,19 @@
         <v>8207</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>3910</v>
+        <v>3383</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>16779</v>
+        <v>16707</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.02680706497377993</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.01277139957634158</v>
+        <v>0.01104860865309173</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.0548026089287915</v>
+        <v>0.0545687424940161</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>20</v>
@@ -5307,19 +5307,19 @@
         <v>16630</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>10268</v>
+        <v>10559</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>25505</v>
+        <v>25350</v>
       </c>
       <c r="N75" s="6" t="n">
-        <v>0.05417585614998633</v>
+        <v>0.05417585614998632</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.03344963998947723</v>
+        <v>0.0343975227755467</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.08308749005330972</v>
+        <v>0.08258331702522989</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>27</v>
@@ -5328,19 +5328,19 @@
         <v>24837</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>17002</v>
+        <v>16401</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>36919</v>
+        <v>37137</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.04050917717482214</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.02773045919361967</v>
+        <v>0.02674920152989612</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.06021498486477046</v>
+        <v>0.06056986541623897</v>
       </c>
     </row>
     <row r="76">
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>8231</v>
+        <v>6837</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.006833799777913408</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.02688272381157215</v>
+        <v>0.02233056473311978</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>7</v>
@@ -5566,19 +5566,19 @@
         <v>6567</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>2749</v>
+        <v>3003</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>14169</v>
+        <v>13866</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.021393230258338</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.008954613740095228</v>
+        <v>0.00978209618754142</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.04615851537572455</v>
+        <v>0.0451720005594898</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>9</v>
@@ -5587,19 +5587,19 @@
         <v>8659</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>4151</v>
+        <v>4211</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>16219</v>
+        <v>17450</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.01412293976007991</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.006770991540973926</v>
+        <v>0.006867507465827181</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.02645298859211594</v>
+        <v>0.02846069792462323</v>
       </c>
     </row>
     <row r="81">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>10665</v>
+        <v>11165</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.00994110835664984</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.03483250317685677</v>
+        <v>0.03646856565318615</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>3200</v>
+        <v>2814</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.002065862051929494</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.01042340019414067</v>
+        <v>0.00916882852530548</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>3</v>
@@ -5658,19 +5658,19 @@
         <v>3678</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>11500</v>
+        <v>10880</v>
       </c>
       <c r="U81" s="6" t="n">
-        <v>0.005998387328768534</v>
+        <v>0.005998387328768533</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.001036322771130313</v>
+        <v>0.001020148033586323</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.01875650897716793</v>
+        <v>0.0177448495388264</v>
       </c>
     </row>
     <row r="82">
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>8071</v>
+        <v>7699</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.006888098532961603</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.02636297655988961</v>
+        <v>0.02514754269243475</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>4</v>
@@ -5708,19 +5708,19 @@
         <v>3302</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>727</v>
+        <v>1301</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>7931</v>
+        <v>9357</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.01075580184169708</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.002369508796126696</v>
+        <v>0.004239174797271169</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.02583746470129527</v>
+        <v>0.03048261636087515</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>6</v>
@@ -5729,19 +5729,19 @@
         <v>5411</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>2043</v>
+        <v>1981</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>11854</v>
+        <v>11637</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.008824453863945626</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.003331388330974504</v>
+        <v>0.003230983831759754</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.01933447870493268</v>
+        <v>0.01898032677802119</v>
       </c>
     </row>
     <row r="83">
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>5239</v>
+        <v>4696</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.005202128089251091</v>
@@ -5770,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.01711212920830049</v>
+        <v>0.01533910664323466</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>1</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>3518</v>
+        <v>3494</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.002298462813192125</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01146163388733025</v>
+        <v>0.0113815526509556</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>3</v>
@@ -5800,19 +5800,19 @@
         <v>2298</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>691</v>
+        <v>711</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>6130</v>
+        <v>6529</v>
       </c>
       <c r="U83" s="6" t="n">
-        <v>0.003748415824406189</v>
+        <v>0.003748415824406188</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.001127696524868129</v>
+        <v>0.001159298656276186</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.009997280142623645</v>
+        <v>0.01064902972928897</v>
       </c>
     </row>
     <row r="84">
@@ -5829,19 +5829,19 @@
         <v>18561</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>10673</v>
+        <v>10481</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>29961</v>
+        <v>29572</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.06062435462475444</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.03486022779954234</v>
+        <v>0.03423179312154452</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.09785680497863494</v>
+        <v>0.09658760730250528</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>36</v>
@@ -5850,19 +5850,19 @@
         <v>25938</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>18554</v>
+        <v>18451</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>35862</v>
+        <v>35076</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.08450108486746596</v>
+        <v>0.08450108486746595</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.06044531248691375</v>
+        <v>0.06010815213963208</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.11682943543736</v>
+        <v>0.1142704338061367</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>52</v>
@@ -5871,19 +5871,19 @@
         <v>44500</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>33192</v>
+        <v>33117</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>57674</v>
+        <v>57669</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.07257817584664589</v>
+        <v>0.07257817584664587</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.0541362761315413</v>
+        <v>0.05401300845742199</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.09406613099592866</v>
+        <v>0.09405794770972713</v>
       </c>
     </row>
     <row r="85">
@@ -5900,19 +5900,19 @@
         <v>226270</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>206947</v>
+        <v>204550</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>242600</v>
+        <v>244054</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>0.739041548253241</v>
+        <v>0.7390415482532411</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.6759279973129104</v>
+        <v>0.668098381977935</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.7923775931952241</v>
+        <v>0.7971256508269661</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>211</v>
@@ -5921,19 +5921,19 @@
         <v>153765</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>137587</v>
+        <v>137755</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>170375</v>
+        <v>168856</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.5009280674541801</v>
+        <v>0.5009280674541799</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.4482254718008815</v>
+        <v>0.4487733665626377</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.5550386332618742</v>
+        <v>0.5500927094661108</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>400</v>
@@ -5942,19 +5942,19 @@
         <v>380035</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>354584</v>
+        <v>352105</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>405242</v>
+        <v>403687</v>
       </c>
       <c r="U85" s="6" t="n">
-        <v>0.6198306700860715</v>
+        <v>0.6198306700860714</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.5783199758992513</v>
+        <v>0.5742771791464151</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.660942383575994</v>
+        <v>0.6584072492349586</v>
       </c>
     </row>
     <row r="86">
@@ -5971,19 +5971,19 @@
         <v>9011</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>2128</v>
+        <v>2116</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>25297</v>
+        <v>27186</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.02943194594117007</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.006950044167210798</v>
+        <v>0.006909698863534549</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.08262545815364328</v>
+        <v>0.0887948402236392</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>3</v>
@@ -5992,19 +5992,19 @@
         <v>2382</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>7491</v>
+        <v>6648</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.007760254388716561</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.002298155172180022</v>
+        <v>0.002301718426509628</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.02440508439462078</v>
+        <v>0.02165623998270929</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>6</v>
@@ -6013,19 +6013,19 @@
         <v>11393</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>3978</v>
+        <v>3787</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>29352</v>
+        <v>30103</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.01858207144995562</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.006487344849588601</v>
+        <v>0.006176113906468148</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.04787272381939115</v>
+        <v>0.04909815361370005</v>
       </c>
     </row>
     <row r="87">
@@ -6042,19 +6042,19 @@
         <v>25981</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>16891</v>
+        <v>16044</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>39598</v>
+        <v>38203</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.08485967732110641</v>
+        <v>0.0848596773211064</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.05517016878108989</v>
+        <v>0.05240168245971023</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.1293355110372371</v>
+        <v>0.1247776181006326</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>97</v>
@@ -6063,19 +6063,19 @@
         <v>71813</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>59181</v>
+        <v>58974</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>86826</v>
+        <v>87239</v>
       </c>
       <c r="N87" s="6" t="n">
         <v>0.2339489902257403</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.1927986986654853</v>
+        <v>0.1921213349346007</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.2828571855231379</v>
+        <v>0.2842025128283326</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>118</v>
@@ -6084,19 +6084,19 @@
         <v>97794</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>79850</v>
+        <v>79662</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>116260</v>
+        <v>117158</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.1595008436131554</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.1302338235236517</v>
+        <v>0.1299273854883478</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.1896181008871408</v>
+        <v>0.1910825361693143</v>
       </c>
     </row>
     <row r="88">
@@ -6191,16 +6191,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>8221</v>
+        <v>7163</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>0.0007644135960432763</v>
+        <v>0.0007644135960432762</v>
       </c>
       <c r="H89" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.004371620179619279</v>
+        <v>0.003808952492890892</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>7222</v>
+        <v>5794</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.0004300606790027337</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.002160702194903003</v>
+        <v>0.00173345454294041</v>
       </c>
     </row>
     <row r="90">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>5606</v>
+        <v>4677</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.0004914147152601629</v>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.002980806171568387</v>
+        <v>0.002486800919871383</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>1</v>
@@ -6275,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>4191</v>
+        <v>4687</v>
       </c>
       <c r="N90" s="6" t="n">
-        <v>0.0006363046654006888</v>
+        <v>0.0006363046654006887</v>
       </c>
       <c r="O90" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.002866712512707947</v>
+        <v>0.003205491645910288</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>2</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>5680</v>
+        <v>7048</v>
       </c>
       <c r="U90" s="6" t="n">
         <v>0.0005547892781016655</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.001699225995627216</v>
+        <v>0.002108377338949766</v>
       </c>
     </row>
     <row r="91">
@@ -6322,19 +6322,19 @@
         <v>102024</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>81088</v>
+        <v>84924</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>122199</v>
+        <v>124510</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.0542517724101793</v>
       </c>
       <c r="H91" s="6" t="n">
-        <v>0.04311859966545423</v>
+        <v>0.04515835071457114</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.06497983539575987</v>
+        <v>0.0662085996591187</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>186</v>
@@ -6343,19 +6343,19 @@
         <v>116623</v>
       </c>
       <c r="L91" s="5" t="n">
-        <v>101146</v>
+        <v>99835</v>
       </c>
       <c r="M91" s="5" t="n">
-        <v>137385</v>
+        <v>135149</v>
       </c>
       <c r="N91" s="6" t="n">
-        <v>0.07976615885512492</v>
+        <v>0.07976615885512491</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>0.06918017466112562</v>
+        <v>0.06828383805149039</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>0.09396640878311441</v>
+        <v>0.09243728521255598</v>
       </c>
       <c r="Q91" s="5" t="n">
         <v>295</v>
@@ -6364,19 +6364,19 @@
         <v>218647</v>
       </c>
       <c r="S91" s="5" t="n">
-        <v>194545</v>
+        <v>194871</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>246231</v>
+        <v>246775</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.0654117119749961</v>
       </c>
       <c r="V91" s="6" t="n">
-        <v>0.05820122707534438</v>
+        <v>0.05829860865219273</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.07366384946707011</v>
+        <v>0.07382653086446574</v>
       </c>
     </row>
     <row r="92">
@@ -6393,19 +6393,19 @@
         <v>53654</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>38763</v>
+        <v>39904</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>70600</v>
+        <v>71424</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>0.02853089900096094</v>
+        <v>0.02853089900096093</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.02061216303570751</v>
+        <v>0.02121919182804675</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.0375417475640203</v>
+        <v>0.03797994217511085</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>65</v>
@@ -6414,19 +6414,19 @@
         <v>54607</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>43129</v>
+        <v>42831</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>69566</v>
+        <v>70019</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>0.03734952892266892</v>
+        <v>0.03734952892266891</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.02949874774397591</v>
+        <v>0.02929484368778295</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.04758094454117093</v>
+        <v>0.04789035031154096</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>111</v>
@@ -6435,19 +6435,19 @@
         <v>108262</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>87382</v>
+        <v>89556</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>129181</v>
+        <v>131424</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.03238814938725201</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.02614154189360627</v>
+        <v>0.02679215066275375</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.03864638430924563</v>
+        <v>0.03931735086464632</v>
       </c>
     </row>
     <row r="93">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>9012</v>
+        <v>7638</v>
       </c>
       <c r="G93" s="6" t="n">
         <v>0.001004174775652223</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.004792251770250825</v>
+        <v>0.004061660800349668</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>1</v>
@@ -6488,16 +6488,16 @@
         <v>0</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>4543</v>
+        <v>4002</v>
       </c>
       <c r="N93" s="6" t="n">
-        <v>0.000550193367475461</v>
+        <v>0.0005501933674754609</v>
       </c>
       <c r="O93" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.003107320942330273</v>
+        <v>0.002737476310600482</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>2</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>11620</v>
+        <v>9980</v>
       </c>
       <c r="U93" s="6" t="n">
         <v>0.0008056042519308207</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.003476265638983061</v>
+        <v>0.002985770042972254</v>
       </c>
     </row>
     <row r="94">
@@ -6551,16 +6551,16 @@
         <v>0</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>4756</v>
+        <v>4744</v>
       </c>
       <c r="N94" s="6" t="n">
-        <v>0.000932827425735347</v>
+        <v>0.0009328274257353469</v>
       </c>
       <c r="O94" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>0.003252821044568963</v>
+        <v>0.003244913510436771</v>
       </c>
       <c r="Q94" s="5" t="n">
         <v>2</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>4767</v>
+        <v>4777</v>
       </c>
       <c r="U94" s="6" t="n">
         <v>0.0004080167758716524</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>0.001426197930586668</v>
+        <v>0.001429247196382749</v>
       </c>
     </row>
     <row r="95">
@@ -6598,19 +6598,19 @@
         <v>4687</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>10972</v>
+        <v>10625</v>
       </c>
       <c r="G95" s="6" t="n">
         <v>0.002492300145933425</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.0009388057572542632</v>
+        <v>0.0009398487749152503</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.00583439531504372</v>
+        <v>0.005649738919798024</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>0</v>
@@ -6632,19 +6632,19 @@
         <v>4687</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>11067</v>
+        <v>10012</v>
       </c>
       <c r="U95" s="6" t="n">
         <v>0.001402173245722935</v>
       </c>
       <c r="V95" s="6" t="n">
-        <v>0.0005311225992091439</v>
+        <v>0.0005281954545957669</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.003310742822827828</v>
+        <v>0.002995346658808992</v>
       </c>
     </row>
     <row r="96">
@@ -6664,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>17175</v>
+        <v>13093</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>0.001402217825732866</v>
+        <v>0.001402217825732865</v>
       </c>
       <c r="H96" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.009133001777043254</v>
+        <v>0.006962371580025556</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>3410</v>
+        <v>4334</v>
       </c>
       <c r="N96" s="6" t="n">
         <v>0.0004946631408438214</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.002332354430247811</v>
+        <v>0.002964476570860377</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>2</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>14635</v>
+        <v>14616</v>
       </c>
       <c r="U96" s="6" t="n">
         <v>0.001005255294143771</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.004378269084196638</v>
+        <v>0.004372594520178753</v>
       </c>
     </row>
     <row r="97">
@@ -6732,19 +6732,19 @@
         <v>36900</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>24330</v>
+        <v>25462</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>52944</v>
+        <v>53372</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>0.01962158277448601</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.01293753268337611</v>
+        <v>0.01353965058393195</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.02815332230031625</v>
+        <v>0.02838062900398385</v>
       </c>
       <c r="J97" s="5" t="n">
         <v>49</v>
@@ -6753,19 +6753,19 @@
         <v>38810</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>28585</v>
+        <v>28810</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>51460</v>
+        <v>52492</v>
       </c>
       <c r="N97" s="6" t="n">
         <v>0.0265448243564358</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0.01955147288779711</v>
+        <v>0.01970507847402544</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.03519700898466366</v>
+        <v>0.03590242071912752</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>78</v>
@@ -6774,19 +6774,19 @@
         <v>75710</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>59765</v>
+        <v>60403</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>97601</v>
+        <v>96635</v>
       </c>
       <c r="U97" s="6" t="n">
         <v>0.02264979424309814</v>
       </c>
       <c r="V97" s="6" t="n">
-        <v>0.01787960069594749</v>
+        <v>0.01807055693318145</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.02919882635107871</v>
+        <v>0.02890970552831828</v>
       </c>
     </row>
     <row r="98">
@@ -6803,19 +6803,19 @@
         <v>7780</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>16680</v>
+        <v>17358</v>
       </c>
       <c r="G98" s="6" t="n">
         <v>0.00413719294755009</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.001616823679433911</v>
+        <v>0.001619441556713796</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.008869542581640685</v>
+        <v>0.009230046547106093</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>4</v>
@@ -6824,19 +6824,19 @@
         <v>3915</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>1333</v>
+        <v>704</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>11340</v>
+        <v>10061</v>
       </c>
       <c r="N98" s="6" t="n">
         <v>0.002677578736072317</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.0009115271629877044</v>
+        <v>0.000481463349451248</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.007756021305474174</v>
+        <v>0.006881683771191147</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>10</v>
@@ -6845,19 +6845,19 @@
         <v>11695</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>5500</v>
+        <v>5896</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>21375</v>
+        <v>23216</v>
       </c>
       <c r="U98" s="6" t="n">
-        <v>0.003498760727234381</v>
+        <v>0.00349876072723438</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.001645473314560269</v>
+        <v>0.001763898990177845</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.006394683801562239</v>
+        <v>0.006945348956180917</v>
       </c>
     </row>
     <row r="99">
@@ -6874,19 +6874,19 @@
         <v>78779</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>59903</v>
+        <v>61200</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>98537</v>
+        <v>101201</v>
       </c>
       <c r="G99" s="6" t="n">
         <v>0.04189120143175273</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.03185340268976708</v>
+        <v>0.03254324504826529</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.0523974827084413</v>
+        <v>0.05381371711635607</v>
       </c>
       <c r="J99" s="5" t="n">
         <v>77</v>
@@ -6895,19 +6895,19 @@
         <v>57857</v>
       </c>
       <c r="L99" s="5" t="n">
-        <v>46658</v>
+        <v>45162</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>73038</v>
+        <v>71013</v>
       </c>
       <c r="N99" s="6" t="n">
-        <v>0.03957204494298307</v>
+        <v>0.03957204494298306</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0.03191217775349445</v>
+        <v>0.03088950448215133</v>
       </c>
       <c r="P99" s="6" t="n">
-        <v>0.04995558739496925</v>
+        <v>0.04857061518065452</v>
       </c>
       <c r="Q99" s="5" t="n">
         <v>139</v>
@@ -6916,19 +6916,19 @@
         <v>136636</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>114944</v>
+        <v>114268</v>
       </c>
       <c r="T99" s="5" t="n">
-        <v>162459</v>
+        <v>164517</v>
       </c>
       <c r="U99" s="6" t="n">
         <v>0.04087680720707211</v>
       </c>
       <c r="V99" s="6" t="n">
-        <v>0.03438735330386049</v>
+        <v>0.0341849885322825</v>
       </c>
       <c r="W99" s="6" t="n">
-        <v>0.04860194372085026</v>
+        <v>0.04921768189006166</v>
       </c>
     </row>
     <row r="100">
@@ -6945,19 +6945,19 @@
         <v>10509</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>5698</v>
+        <v>5483</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>19150</v>
+        <v>19386</v>
       </c>
       <c r="G100" s="6" t="n">
         <v>0.005588098877277944</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.003030143159103392</v>
+        <v>0.002915564677986331</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.01018307831079366</v>
+        <v>0.01030837079454366</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>7</v>
@@ -6966,19 +6966,19 @@
         <v>8333</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>3301</v>
+        <v>2997</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>18855</v>
+        <v>18220</v>
       </c>
       <c r="N100" s="6" t="n">
-        <v>0.005699800826885595</v>
+        <v>0.005699800826885594</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>0.002257708087265064</v>
+        <v>0.002050016294317466</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>0.01289631913880146</v>
+        <v>0.01246188019075617</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>17</v>
@@ -6987,19 +6987,19 @@
         <v>18842</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>10905</v>
+        <v>11484</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>29387</v>
+        <v>31435</v>
       </c>
       <c r="U100" s="6" t="n">
         <v>0.005636957077712567</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.003262338214255455</v>
+        <v>0.0034355921812997</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.008791672231564246</v>
+        <v>0.009404219030988252</v>
       </c>
     </row>
     <row r="101">
@@ -7016,19 +7016,19 @@
         <v>60177</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>44611</v>
+        <v>46166</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>79775</v>
+        <v>79673</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>0.03199937634463223</v>
+        <v>0.03199937634463222</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.02372203429124897</v>
+        <v>0.02454886930249565</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.04242057804345684</v>
+        <v>0.04236618860376022</v>
       </c>
       <c r="J101" s="5" t="n">
         <v>86</v>
@@ -7037,19 +7037,19 @@
         <v>73282</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>58968</v>
+        <v>59829</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>91744</v>
+        <v>91833</v>
       </c>
       <c r="N101" s="6" t="n">
-        <v>0.0501222863237895</v>
+        <v>0.05012228632378949</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0.0403320149981912</v>
+        <v>0.04092100242821779</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>0.06274969092035187</v>
+        <v>0.06281049787921818</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>137</v>
@@ -7058,19 +7058,19 @@
         <v>133459</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>111534</v>
+        <v>111218</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>158392</v>
+        <v>157404</v>
       </c>
       <c r="U101" s="6" t="n">
         <v>0.03992629947650617</v>
       </c>
       <c r="V101" s="6" t="n">
-        <v>0.03336701254754332</v>
+        <v>0.03327244210057883</v>
       </c>
       <c r="W101" s="6" t="n">
-        <v>0.04738550947293029</v>
+        <v>0.04708967691717862</v>
       </c>
     </row>
     <row r="102">
@@ -7087,19 +7087,19 @@
         <v>1226499</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>1172643</v>
+        <v>1177035</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>1268408</v>
+        <v>1274120</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>0.6521944903644998</v>
+        <v>0.6521944903644996</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.6235564376570695</v>
+        <v>0.6258914887856966</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.6744793014583245</v>
+        <v>0.6775168949262962</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>976</v>
@@ -7108,19 +7108,19 @@
         <v>735160</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>699822</v>
+        <v>700885</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>768453</v>
+        <v>768909</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>0.502824608374473</v>
+        <v>0.5028246083744728</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.4786546416368326</v>
+        <v>0.4793812836775012</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.5255955107700762</v>
+        <v>0.5259073023311011</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>2029</v>
@@ -7129,19 +7129,19 @@
         <v>1961660</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>1900553</v>
+        <v>1906988</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>2015532</v>
+        <v>2025041</v>
       </c>
       <c r="U102" s="6" t="n">
-        <v>0.5868604146496301</v>
+        <v>0.5868604146496302</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.568579586538082</v>
+        <v>0.5705044447486242</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.6029771714513253</v>
+        <v>0.6058219467064628</v>
       </c>
     </row>
     <row r="103">
@@ -7158,19 +7158,19 @@
         <v>27588</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>17566</v>
+        <v>16646</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>45053</v>
+        <v>47870</v>
       </c>
       <c r="G103" s="6" t="n">
         <v>0.0146699619937355</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.009340586645447709</v>
+        <v>0.008851380551352895</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.02395731818654084</v>
+        <v>0.02545525290385997</v>
       </c>
       <c r="J103" s="5" t="n">
         <v>15</v>
@@ -7179,19 +7179,19 @@
         <v>11607</v>
       </c>
       <c r="L103" s="5" t="n">
-        <v>6549</v>
+        <v>6325</v>
       </c>
       <c r="M103" s="5" t="n">
-        <v>18097</v>
+        <v>18439</v>
       </c>
       <c r="N103" s="6" t="n">
-        <v>0.007938750478682441</v>
+        <v>0.007938750478682439</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0.004479142779757317</v>
+        <v>0.004325937027464999</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>0.01237786338320979</v>
+        <v>0.01261195221559144</v>
       </c>
       <c r="Q103" s="5" t="n">
         <v>34</v>
@@ -7200,19 +7200,19 @@
         <v>39195</v>
       </c>
       <c r="S103" s="5" t="n">
-        <v>26933</v>
+        <v>26807</v>
       </c>
       <c r="T103" s="5" t="n">
-        <v>59734</v>
+        <v>61681</v>
       </c>
       <c r="U103" s="6" t="n">
         <v>0.01172574407698946</v>
       </c>
       <c r="V103" s="6" t="n">
-        <v>0.008057510641859335</v>
+        <v>0.008019739191307568</v>
       </c>
       <c r="W103" s="6" t="n">
-        <v>0.01787028595271898</v>
+        <v>0.01845288595054086</v>
       </c>
     </row>
     <row r="104">
@@ -7229,19 +7229,19 @@
         <v>265087</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>230015</v>
+        <v>229004</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>299073</v>
+        <v>297773</v>
       </c>
       <c r="G104" s="6" t="n">
         <v>0.1409609027963036</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.1223111017559387</v>
+        <v>0.1217735548701732</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.1590330092422328</v>
+        <v>0.1583414558346949</v>
       </c>
       <c r="J104" s="5" t="n">
         <v>486</v>
@@ -7250,19 +7250,19 @@
         <v>358045</v>
       </c>
       <c r="L104" s="5" t="n">
-        <v>329583</v>
+        <v>330286</v>
       </c>
       <c r="M104" s="5" t="n">
-        <v>388598</v>
+        <v>388188</v>
       </c>
       <c r="N104" s="6" t="n">
         <v>0.2448904295834292</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>0.2254236322854445</v>
+        <v>0.2259044878115354</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>0.2657879402259727</v>
+        <v>0.26550750809322</v>
       </c>
       <c r="Q104" s="5" t="n">
         <v>709</v>
@@ -7271,19 +7271,19 @@
         <v>623132</v>
       </c>
       <c r="S104" s="5" t="n">
-        <v>580167</v>
+        <v>578710</v>
       </c>
       <c r="T104" s="5" t="n">
-        <v>667744</v>
+        <v>666727</v>
       </c>
       <c r="U104" s="6" t="n">
         <v>0.1864194616547352</v>
       </c>
       <c r="V104" s="6" t="n">
-        <v>0.1735658544841449</v>
+        <v>0.1731299303013282</v>
       </c>
       <c r="W104" s="6" t="n">
-        <v>0.1997657750831965</v>
+        <v>0.1994615949725101</v>
       </c>
     </row>
     <row r="105">
